--- a/Resources/Group4 Data Dictionary.xlsx
+++ b/Resources/Group4 Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6119fd54d26125e1/Desktop/BCamp Class Folder/GROUP 4 PROJECT/DATASETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{9E8DC3C9-BDE1-40AB-85CD-5646FD191401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E80102-87F1-4731-BA8A-E691ACE65A99}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{9E8DC3C9-BDE1-40AB-85CD-5646FD191401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FDAE37-F1F7-4F68-8DB5-F7EC91539922}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{91026ABD-38E3-49E4-B77A-E5EC801C670E}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>STATE_AREA</t>
   </si>
   <si>
-    <t>STATE_NAME</t>
-  </si>
-  <si>
     <t>Measurement of state's land area by square miles.</t>
   </si>
   <si>
@@ -66,15 +63,6 @@
     <t>US States (not inclusive of US territories) - abbreviated.</t>
   </si>
   <si>
-    <t>Sex [Female; Male]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Race [American Indian/Alaska Native; Asian; Black; Native Hawaiian/Other Pacific Islander; White; Multiple/Other]. </t>
-  </si>
-  <si>
-    <t>Age group [0 - 17 years; 18 - 49 years; 50 - 64 years; 65 + years].</t>
-  </si>
-  <si>
     <t>POPULATION</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
     <t>POLITICAL_PARTY</t>
   </si>
   <si>
-    <t>Potus Poll [Trump approval; Trump disapproval; Don't Care].</t>
-  </si>
-  <si>
     <t>POLITICAL_CREDO</t>
   </si>
   <si>
@@ -416,6 +401,121 @@
   </si>
   <si>
     <t>A median household income refers to the income level earned above or below half of the homes in the state giving a sense for a state's actual economic status.</t>
+  </si>
+  <si>
+    <r>
+      <t>Potus Poll [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trump approval; Trump disapproval; Don't Care</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sex [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Female; Male; No ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Age group [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 - 17 years; 18 - 49 years; 50 - 64 years; 65 + years; No ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Race [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Indian/Alaska Native; Asian; Black; Native Hawaiian/Other Pacific Islander; White; Multiple/Other; No ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">]. </t>
+    </r>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -857,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FB1DDD-1FFB-4217-8B2F-863A3CC4485D}">
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,46 +973,46 @@
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -920,43 +1020,43 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -964,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,157 +1075,158 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Group4 Data Dictionary.xlsx
+++ b/Resources/Group4 Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6119fd54d26125e1/Desktop/BCamp Class Folder/GROUP 4 PROJECT/DATASETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{9E8DC3C9-BDE1-40AB-85CD-5646FD191401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FDAE37-F1F7-4F68-8DB5-F7EC91539922}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{9E8DC3C9-BDE1-40AB-85CD-5646FD191401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E7A594F-D117-450B-8D08-AF6B05F2635F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{91026ABD-38E3-49E4-B77A-E5EC801C670E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91026ABD-38E3-49E4-B77A-E5EC801C670E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA DICT" sheetId="3" r:id="rId1"/>
@@ -132,6 +132,89 @@
     <t>Ratio of the total number of airports by state to the state's land area.</t>
   </si>
   <si>
+    <t>COLUMN NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>MANDATES_SCORE</t>
+  </si>
+  <si>
+    <t>AGE_GROUP</t>
+  </si>
+  <si>
+    <t>ECONOMIC_CONFIDENCE_INDEX</t>
+  </si>
+  <si>
+    <t>HH_INCOME</t>
+  </si>
+  <si>
+    <t>A median household income refers to the income level earned above or below half of the homes in the state giving a sense for a state's actual economic status.</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <r>
+      <t>Race [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Indian/Alaska Native; Asian; Black; Native Hawaiian/Other Pacific Islander; White; Multiple/Other; No ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">]. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Potus Poll [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trump approval; Trump disapproval; Don't Care</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Number of people who define by Political Party [</t>
     </r>
@@ -139,7 +222,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -150,7 +233,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -167,7 +250,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -178,7 +261,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -195,7 +278,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -206,7 +289,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -223,7 +306,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -234,7 +317,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -246,7 +329,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -257,7 +340,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -274,7 +357,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -285,7 +368,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -302,7 +385,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -313,7 +396,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -330,7 +413,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -341,7 +424,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -358,7 +441,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -369,7 +452,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -379,49 +462,25 @@
     </r>
   </si>
   <si>
-    <t>COLUMN NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>MANDATES_SCORE</t>
-  </si>
-  <si>
-    <t>AGE_GROUP</t>
-  </si>
-  <si>
-    <t>ECONOMIC_CONFIDENCE_INDEX</t>
-  </si>
-  <si>
-    <t>HH_INCOME</t>
-  </si>
-  <si>
-    <t>A median household income refers to the income level earned above or below half of the homes in the state giving a sense for a state's actual economic status.</t>
-  </si>
-  <si>
-    <r>
-      <t>Potus Poll [</t>
+    <r>
+      <t>Age group [</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trump approval; Trump disapproval; Don't Care</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 - 17 years; 18 - 49 years; 50 - 64 years; 65 + years</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -432,24 +491,24 @@
   </si>
   <si>
     <r>
-      <t>Sex [</t>
+      <t>Sex or Gender [</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Female; Male; No ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Female; Male</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -457,72 +516,13 @@
       </rPr>
       <t>]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Age group [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0 - 17 years; 18 - 49 years; 50 - 64 years; 65 + years; No ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>].</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Race [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>American Indian/Alaska Native; Asian; Black; Native Hawaiian/Other Pacific Islander; White; Multiple/Other; No ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">]. </t>
-    </r>
-  </si>
-  <si>
-    <t>ST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,16 +556,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -619,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -637,9 +629,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -955,34 +955,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FB1DDD-1FFB-4217-8B2F-863A3CC4485D}">
-  <dimension ref="B1:E25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -992,10 +1005,14 @@
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="11"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -1003,8 +1020,12 @@
       <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1014,8 +1035,12 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="11"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1025,8 +1050,12 @@
       <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="11"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1036,54 +1065,74 @@
       <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>0</v>
@@ -1091,43 +1140,59 @@
       <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="11"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="11"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="11"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
@@ -1135,19 +1200,27 @@
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1157,63 +1230,87 @@
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="11"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="11"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="11"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="11"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="11"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="11"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1223,8 +1320,54 @@
       <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
